--- a/decm-data/decm_polygons_record.xlsx
+++ b/decm-data/decm_polygons_record.xlsx
@@ -1,33 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bellamy2\Box Sync\Box Sync\My Documents\HIST\In Progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ubuntu-shared\research\gazeteer\git-project\historical-gazetteer\decm-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AEEFA5-4846-482A-BEB4-997DDAB11447}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="11145"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="atributes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$26</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="177">
   <si>
     <t>ID</t>
   </si>
@@ -357,12 +365,213 @@
   </si>
   <si>
     <t>All minor civil divisions [1580]</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Atribute1</t>
+  </si>
+  <si>
+    <t>Atribute2</t>
+  </si>
+  <si>
+    <t>Atribute3</t>
+  </si>
+  <si>
+    <t>Atribute4</t>
+  </si>
+  <si>
+    <t>Atribute5</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Gobierno</t>
+  </si>
+  <si>
+    <t>Audiencia</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Polygon</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Diocese</t>
+  </si>
+  <si>
+    <t>Archbishop</t>
+  </si>
+  <si>
+    <t>Bishopric</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Current_ci</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Chief_loc</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>dudosa</t>
+  </si>
+  <si>
+    <t>Provinvia</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Org_name</t>
+  </si>
+  <si>
+    <t>Org_type</t>
+  </si>
+  <si>
+    <t>Entidad</t>
+  </si>
+  <si>
+    <t>sub_ent</t>
+  </si>
+  <si>
+    <t>ordenes_re</t>
+  </si>
+  <si>
+    <t>obispado</t>
+  </si>
+  <si>
+    <t>entidad</t>
+  </si>
+  <si>
+    <t>sun_ent</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>del_type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>gerhard_ID</t>
+  </si>
+  <si>
+    <t>interdancy</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Chief_town</t>
+  </si>
+  <si>
+    <t>Town_type</t>
+  </si>
+  <si>
+    <t>diocese</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>1550-1776</t>
+  </si>
+  <si>
+    <t>XVI-XVII</t>
+  </si>
+  <si>
+    <t>1519-1577</t>
+  </si>
+  <si>
+    <t>1500s</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Provinces</t>
+  </si>
+  <si>
+    <t>Minor Civil Divisions</t>
+  </si>
+  <si>
+    <t>Subordinatre gobiernos within Nueva Espana</t>
+  </si>
+  <si>
+    <t>Limits of Nueva Espana</t>
+  </si>
+  <si>
+    <t>Intendancy boundaries</t>
+  </si>
+  <si>
+    <t>Provincias de Yucatán</t>
+  </si>
+  <si>
+    <t>División Antigua (Provincias y Reinos)</t>
+  </si>
+  <si>
+    <t>División en Audiencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pueblos Indígenas y Ciudades Prehispánicas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapa Político-Territorial de Mesoamérica Hacia </t>
+  </si>
+  <si>
+    <t>División Eclesiástica (Obispados)</t>
+  </si>
+  <si>
+    <t>Southeast Frontier - subdelegaciones (Yucatan)</t>
+  </si>
+  <si>
+    <t>Southeast Frontier - intendancies</t>
+  </si>
+  <si>
+    <t>Southeast Frontier - gobiernos</t>
+  </si>
+  <si>
+    <t>Southeast Frontier - audiencias</t>
+  </si>
+  <si>
+    <t>Southeast Frontier - limit of Spanish control</t>
+  </si>
+  <si>
+    <t>All minor civil divisions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -464,6 +673,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,28 +957,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1"/>
-    <col min="9" max="9" width="52.42578125" customWidth="1"/>
-    <col min="10" max="10" width="71.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="98.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +1010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -826,7 +1040,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -856,7 +1070,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>7</v>
       </c>
@@ -886,7 +1100,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -916,7 +1130,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>12</v>
       </c>
@@ -946,7 +1160,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>58</v>
       </c>
@@ -978,7 +1192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>59</v>
       </c>
@@ -1010,7 +1224,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>60</v>
       </c>
@@ -1042,7 +1256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>61</v>
       </c>
@@ -1072,7 +1286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>61</v>
       </c>
@@ -1102,7 +1316,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>62</v>
       </c>
@@ -1134,24 +1348,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="4">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="F13" s="3">
+        <v>31</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>26</v>
@@ -1160,30 +1374,30 @@
         <v>15</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="3">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>26</v>
@@ -1192,24 +1406,24 @@
         <v>15</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>55</v>
@@ -1224,24 +1438,24 @@
         <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>55</v>
@@ -1256,24 +1470,24 @@
         <v>15</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>55</v>
@@ -1288,24 +1502,24 @@
         <v>15</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>55</v>
@@ -1320,24 +1534,24 @@
         <v>15</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>55</v>
@@ -1352,27 +1566,27 @@
         <v>15</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>56</v>
@@ -1384,30 +1598,30 @@
         <v>15</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>56</v>
+        <v>87</v>
+      </c>
+      <c r="F21" s="3">
+        <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>26</v>
@@ -1416,24 +1630,24 @@
         <v>15</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>87</v>
@@ -1448,24 +1662,22 @@
         <v>15</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>87</v>
@@ -1480,22 +1692,22 @@
         <v>15</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>87</v>
@@ -1510,22 +1722,22 @@
         <v>15</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>87</v>
@@ -1540,28 +1752,28 @@
         <v>15</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="3">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>26</v>
@@ -1570,48 +1782,681 @@
         <v>15</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>87</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J27">
-    <sortState ref="A2:K42">
-      <sortCondition ref="A1:A42"/>
+  <autoFilter ref="A1:J26" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K41">
+      <sortCondition ref="A1:A41"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28254D6-91C8-405A-8F22-5F507DD08FD9}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1570</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>58</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1580</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>59</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1786</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>60</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1786</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>61</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1786</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>62</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1786</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>63</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1786</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>63</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>66</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>67</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>68</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1519</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>69</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1520</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>70</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>72</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1520</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>73</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>76</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1786</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>77</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1786</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>78</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1786</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>79</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1786</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>80</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1786</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>87</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1580</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>